--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AEB3B79-BE4D-45D4-81A3-FD52D08E9B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592D1B1-AB3C-41B9-A6D3-5995860801F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3855" windowWidth="28500" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="4200" windowWidth="28500" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>string a</t>
-  </si>
-  <si>
-    <t>string b</t>
-  </si>
-  <si>
-    <t>string c</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>name a</t>
+  </si>
+  <si>
+    <t>name b</t>
+  </si>
+  <si>
+    <t>name c</t>
+  </si>
+  <si>
+    <t>name d</t>
+  </si>
+  <si>
+    <t>name e</t>
+  </si>
+  <si>
+    <t>name f</t>
+  </si>
+  <si>
+    <t>name g</t>
+  </si>
+  <si>
+    <t>location a</t>
+  </si>
+  <si>
+    <t>location c</t>
+  </si>
+  <si>
+    <t>location d</t>
+  </si>
+  <si>
+    <t>location e</t>
+  </si>
+  <si>
+    <t>location f</t>
+  </si>
+  <si>
+    <t>location b</t>
+  </si>
+  <si>
+    <t>locantion g</t>
   </si>
 </sst>
 </file>
@@ -351,34 +384,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0592D1B1-AB3C-41B9-A6D3-5995860801F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA086BC-AFAF-41EE-9071-2A8A0311A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="4200" windowWidth="28500" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="2280" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
+    <sheet name="name" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,48 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
   <si>
-    <t>name a</t>
+    <t>name</t>
   </si>
   <si>
-    <t>name b</t>
-  </si>
-  <si>
-    <t>name c</t>
-  </si>
-  <si>
-    <t>name d</t>
-  </si>
-  <si>
-    <t>name e</t>
-  </si>
-  <si>
-    <t>name f</t>
-  </si>
-  <si>
-    <t>name g</t>
-  </si>
-  <si>
-    <t>location a</t>
-  </si>
-  <si>
-    <t>location c</t>
-  </si>
-  <si>
-    <t>location d</t>
-  </si>
-  <si>
-    <t>location e</t>
-  </si>
-  <si>
-    <t>location f</t>
-  </si>
-  <si>
-    <t>location b</t>
-  </si>
-  <si>
-    <t>locantion g</t>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -386,14 +351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -403,7 +365,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -411,10 +373,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,10 +384,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -433,10 +395,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -444,10 +406,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,10 +417,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,10 +428,110 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DEAD2-06D2-4C8F-88E8-2AD86CE58136}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>69</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA086BC-AFAF-41EE-9071-2A8A0311A77A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF240AB-E504-47CF-8484-60FABFE0B8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="2280" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="1935" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -441,97 +441,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DEAD2-06D2-4C8F-88E8-2AD86CE58136}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>69</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
-      <c r="D1">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -38,6 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +393,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -403,7 +404,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -414,23 +415,12 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -504,9 +494,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>69</v>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>69.0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF240AB-E504-47CF-8484-60FABFE0B8FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F6697-0ECF-4D06-98E8-61868EB5E7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1935" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="4080" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="2">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>location</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>name 1</t>
+  </si>
+  <si>
+    <t>name 14</t>
+  </si>
+  <si>
+    <t>name 15</t>
+  </si>
+  <si>
+    <t>name 2</t>
+  </si>
+  <si>
+    <t>name 3</t>
+  </si>
+  <si>
+    <t>location 1</t>
+  </si>
+  <si>
+    <t>location 14</t>
+  </si>
+  <si>
+    <t>location 15</t>
+  </si>
+  <si>
+    <t>location 2</t>
+  </si>
+  <si>
+    <t>location 3</t>
+  </si>
+  <si>
+    <t>name 11</t>
+  </si>
+  <si>
+    <t>location 11</t>
+  </si>
+  <si>
+    <t>name 12</t>
+  </si>
+  <si>
+    <t>location 12</t>
+  </si>
+  <si>
+    <t>name 13</t>
+  </si>
+  <si>
+    <t>location 13</t>
+  </si>
+  <si>
+    <t>name 16</t>
+  </si>
+  <si>
+    <t>location 16</t>
+  </si>
+  <si>
+    <t>name 17</t>
+  </si>
+  <si>
+    <t>location 17</t>
+  </si>
+  <si>
+    <t>name 18</t>
+  </si>
+  <si>
+    <t>location 18</t>
+  </si>
+  <si>
+    <t>name 19</t>
+  </si>
+  <si>
+    <t>location 19</t>
+  </si>
+  <si>
+    <t>name 20</t>
+  </si>
+  <si>
+    <t>location 20</t>
+  </si>
+  <si>
+    <t>name 21</t>
+  </si>
+  <si>
+    <t>location 21</t>
+  </si>
+  <si>
+    <t>name 22</t>
+  </si>
+  <si>
+    <t>location 22</t>
+  </si>
+  <si>
+    <t>name 23</t>
+  </si>
+  <si>
+    <t>location 23</t>
+  </si>
+  <si>
+    <t>name 24</t>
+  </si>
+  <si>
+    <t>location 24</t>
+  </si>
+  <si>
+    <t>name 25</t>
+  </si>
+  <si>
+    <t>location 25</t>
+  </si>
+  <si>
+    <t>name 26</t>
+  </si>
+  <si>
+    <t>location 26</t>
+  </si>
+  <si>
+    <t>name 27</t>
+  </si>
+  <si>
+    <t>location 27</t>
+  </si>
+  <si>
+    <t>name 28</t>
+  </si>
+  <si>
+    <t>location 28</t>
+  </si>
+  <si>
+    <t>name 29</t>
+  </si>
+  <si>
+    <t>location 29</t>
+  </si>
+  <si>
+    <t>name 30</t>
+  </si>
+  <si>
+    <t>location 30</t>
+  </si>
+  <si>
+    <t>name 31</t>
+  </si>
+  <si>
+    <t>location 31</t>
+  </si>
+  <si>
+    <t>name 32</t>
+  </si>
+  <si>
+    <t>location 32</t>
+  </si>
+  <si>
+    <t>name 33</t>
+  </si>
+  <si>
+    <t>location 33</t>
+  </si>
+  <si>
+    <t>name 34</t>
+  </si>
+  <si>
+    <t>location 34</t>
+  </si>
+  <si>
+    <t>name 35</t>
+  </si>
+  <si>
+    <t>location 35</t>
+  </si>
+  <si>
+    <t>name 36</t>
+  </si>
+  <si>
+    <t>location 36</t>
+  </si>
+  <si>
+    <t>name 37</t>
+  </si>
+  <si>
+    <t>location 37</t>
+  </si>
+  <si>
+    <t>name 38</t>
+  </si>
+  <si>
+    <t>location 38</t>
+  </si>
+  <si>
+    <t>name 39</t>
+  </si>
+  <si>
+    <t>location 39</t>
+  </si>
+  <si>
+    <t>name 40</t>
+  </si>
+  <si>
+    <t>location 40</t>
+  </si>
+  <si>
+    <t>name 41</t>
+  </si>
+  <si>
+    <t>location 41</t>
+  </si>
+  <si>
+    <t>name 42</t>
+  </si>
+  <si>
+    <t>location 42</t>
+  </si>
+  <si>
+    <t>name 43</t>
+  </si>
+  <si>
+    <t>location 43</t>
   </si>
 </sst>
 </file>
@@ -39,10 +249,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +582,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -374,10 +590,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -385,63 +601,75 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DEAD2-06D2-4C8F-88E8-2AD86CE58136}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -459,6 +687,11 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
@@ -472,31 +705,6 @@
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>69.0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92F6697-0ECF-4D06-98E8-61868EB5E7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79380DEC-7AE4-4647-9D1F-D8A732349AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="4080" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,56 +26,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>name 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+  <si>
+    <t>name 43</t>
+  </si>
+  <si>
+    <t>location 43</t>
+  </si>
+  <si>
+    <t>name 10</t>
+  </si>
+  <si>
+    <t>location 10</t>
+  </si>
+  <si>
+    <t>name 11</t>
+  </si>
+  <si>
+    <t>location 11</t>
+  </si>
+  <si>
+    <t>name 12</t>
+  </si>
+  <si>
+    <t>location 12</t>
+  </si>
+  <si>
+    <t>name 13</t>
+  </si>
+  <si>
+    <t>location 13</t>
   </si>
   <si>
     <t>name 14</t>
   </si>
   <si>
+    <t>location 14</t>
+  </si>
+  <si>
     <t>name 15</t>
   </si>
   <si>
-    <t>name 2</t>
-  </si>
-  <si>
-    <t>name 3</t>
-  </si>
-  <si>
-    <t>location 1</t>
-  </si>
-  <si>
-    <t>location 14</t>
-  </si>
-  <si>
     <t>location 15</t>
   </si>
   <si>
-    <t>location 2</t>
-  </si>
-  <si>
-    <t>location 3</t>
-  </si>
-  <si>
-    <t>name 11</t>
-  </si>
-  <si>
-    <t>location 11</t>
-  </si>
-  <si>
-    <t>name 12</t>
-  </si>
-  <si>
-    <t>location 12</t>
-  </si>
-  <si>
-    <t>name 13</t>
-  </si>
-  <si>
-    <t>location 13</t>
-  </si>
-  <si>
     <t>name 16</t>
   </si>
   <si>
@@ -238,17 +232,136 @@
     <t>location 42</t>
   </si>
   <si>
-    <t>name 43</t>
-  </si>
-  <si>
-    <t>location 43</t>
+    <t>name 44</t>
+  </si>
+  <si>
+    <t>location 44</t>
+  </si>
+  <si>
+    <t>name 45</t>
+  </si>
+  <si>
+    <t>location 45</t>
+  </si>
+  <si>
+    <t>name 46</t>
+  </si>
+  <si>
+    <t>location 46</t>
+  </si>
+  <si>
+    <t>name 47</t>
+  </si>
+  <si>
+    <t>location 47</t>
+  </si>
+  <si>
+    <t>name 48</t>
+  </si>
+  <si>
+    <t>location 48</t>
+  </si>
+  <si>
+    <t>name 49</t>
+  </si>
+  <si>
+    <t>location 49</t>
+  </si>
+  <si>
+    <t>name 50</t>
+  </si>
+  <si>
+    <t>location 50</t>
+  </si>
+  <si>
+    <t>name 51</t>
+  </si>
+  <si>
+    <t>location 51</t>
+  </si>
+  <si>
+    <t>name 52</t>
+  </si>
+  <si>
+    <t>location 52</t>
+  </si>
+  <si>
+    <t>name 53</t>
+  </si>
+  <si>
+    <t>location 53</t>
+  </si>
+  <si>
+    <t>name 54</t>
+  </si>
+  <si>
+    <t>location 54</t>
+  </si>
+  <si>
+    <t>name 55</t>
+  </si>
+  <si>
+    <t>location 55</t>
+  </si>
+  <si>
+    <t>name 56</t>
+  </si>
+  <si>
+    <t>location 56</t>
+  </si>
+  <si>
+    <t>name 57</t>
+  </si>
+  <si>
+    <t>location 57</t>
+  </si>
+  <si>
+    <t>name 58</t>
+  </si>
+  <si>
+    <t>location 58</t>
+  </si>
+  <si>
+    <t>name 59</t>
+  </si>
+  <si>
+    <t>location 59</t>
+  </si>
+  <si>
+    <t>name 60</t>
+  </si>
+  <si>
+    <t>location 60</t>
+  </si>
+  <si>
+    <t>name 6</t>
+  </si>
+  <si>
+    <t>location 6</t>
+  </si>
+  <si>
+    <t>name 7</t>
+  </si>
+  <si>
+    <t>location 7</t>
+  </si>
+  <si>
+    <t>name 8</t>
+  </si>
+  <si>
+    <t>location 8</t>
+  </si>
+  <si>
+    <t>name 9</t>
+  </si>
+  <si>
+    <t>location 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -284,8 +397,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -566,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,65 +705,593 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C40" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -659,52 +1302,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DEAD2-06D2-4C8F-88E8-2AD86CE58136}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>133333337</v>
+      </c>
+      <c r="B1">
+        <v>666999</v>
+      </c>
+      <c r="C1">
+        <v>999666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>133333337</v>
+      </c>
+      <c r="B2">
+        <v>666999</v>
+      </c>
+      <c r="C2">
+        <v>999666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>6699</v>
+      </c>
+      <c r="C3">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B4">
+        <v>6699</v>
+      </c>
+      <c r="C4">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>6699</v>
+      </c>
+      <c r="C5">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6">
+        <v>6699</v>
+      </c>
+      <c r="C6">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7">
+        <v>6699</v>
+      </c>
+      <c r="C7">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>8</v>
+      </c>
+      <c r="B8">
+        <v>6699</v>
+      </c>
+      <c r="C8">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6699</v>
+      </c>
+      <c r="C9">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>6699</v>
+      </c>
+      <c r="C10">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>6699</v>
+      </c>
+      <c r="C11">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>6699</v>
+      </c>
+      <c r="C12">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>6699</v>
+      </c>
+      <c r="C13">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>6699</v>
+      </c>
+      <c r="C14">
+        <v>9966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>6699</v>
+      </c>
+      <c r="C15">
+        <v>9966</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79380DEC-7AE4-4647-9D1F-D8A732349AF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E54284-F4AF-4CC5-A065-0A68EC2D742C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="4080" windowWidth="28500" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="0" windowWidth="28500" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lapa1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
-  <si>
-    <t>name 43</t>
-  </si>
-  <si>
-    <t>location 43</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>name 10</t>
   </si>
@@ -100,6 +94,60 @@
     <t>location 20</t>
   </si>
   <si>
+    <t>name 6</t>
+  </si>
+  <si>
+    <t>location 6</t>
+  </si>
+  <si>
+    <t>name 7</t>
+  </si>
+  <si>
+    <t>location 7</t>
+  </si>
+  <si>
+    <t>name 8</t>
+  </si>
+  <si>
+    <t>location 8</t>
+  </si>
+  <si>
+    <t>name 9</t>
+  </si>
+  <si>
+    <t>location 9</t>
+  </si>
+  <si>
+    <t>name 1</t>
+  </si>
+  <si>
+    <t>location 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name 2 </t>
+  </si>
+  <si>
+    <t>location 2</t>
+  </si>
+  <si>
+    <t>name 3</t>
+  </si>
+  <si>
+    <t>location 3</t>
+  </si>
+  <si>
+    <t>name 4</t>
+  </si>
+  <si>
+    <t>location 4</t>
+  </si>
+  <si>
+    <t>name 5</t>
+  </si>
+  <si>
+    <t>location 5</t>
+  </si>
+  <si>
     <t>name 21</t>
   </si>
   <si>
@@ -116,246 +164,6 @@
   </si>
   <si>
     <t>location 23</t>
-  </si>
-  <si>
-    <t>name 24</t>
-  </si>
-  <si>
-    <t>location 24</t>
-  </si>
-  <si>
-    <t>name 25</t>
-  </si>
-  <si>
-    <t>location 25</t>
-  </si>
-  <si>
-    <t>name 26</t>
-  </si>
-  <si>
-    <t>location 26</t>
-  </si>
-  <si>
-    <t>name 27</t>
-  </si>
-  <si>
-    <t>location 27</t>
-  </si>
-  <si>
-    <t>name 28</t>
-  </si>
-  <si>
-    <t>location 28</t>
-  </si>
-  <si>
-    <t>name 29</t>
-  </si>
-  <si>
-    <t>location 29</t>
-  </si>
-  <si>
-    <t>name 30</t>
-  </si>
-  <si>
-    <t>location 30</t>
-  </si>
-  <si>
-    <t>name 31</t>
-  </si>
-  <si>
-    <t>location 31</t>
-  </si>
-  <si>
-    <t>name 32</t>
-  </si>
-  <si>
-    <t>location 32</t>
-  </si>
-  <si>
-    <t>name 33</t>
-  </si>
-  <si>
-    <t>location 33</t>
-  </si>
-  <si>
-    <t>name 34</t>
-  </si>
-  <si>
-    <t>location 34</t>
-  </si>
-  <si>
-    <t>name 35</t>
-  </si>
-  <si>
-    <t>location 35</t>
-  </si>
-  <si>
-    <t>name 36</t>
-  </si>
-  <si>
-    <t>location 36</t>
-  </si>
-  <si>
-    <t>name 37</t>
-  </si>
-  <si>
-    <t>location 37</t>
-  </si>
-  <si>
-    <t>name 38</t>
-  </si>
-  <si>
-    <t>location 38</t>
-  </si>
-  <si>
-    <t>name 39</t>
-  </si>
-  <si>
-    <t>location 39</t>
-  </si>
-  <si>
-    <t>name 40</t>
-  </si>
-  <si>
-    <t>location 40</t>
-  </si>
-  <si>
-    <t>name 41</t>
-  </si>
-  <si>
-    <t>location 41</t>
-  </si>
-  <si>
-    <t>name 42</t>
-  </si>
-  <si>
-    <t>location 42</t>
-  </si>
-  <si>
-    <t>name 44</t>
-  </si>
-  <si>
-    <t>location 44</t>
-  </si>
-  <si>
-    <t>name 45</t>
-  </si>
-  <si>
-    <t>location 45</t>
-  </si>
-  <si>
-    <t>name 46</t>
-  </si>
-  <si>
-    <t>location 46</t>
-  </si>
-  <si>
-    <t>name 47</t>
-  </si>
-  <si>
-    <t>location 47</t>
-  </si>
-  <si>
-    <t>name 48</t>
-  </si>
-  <si>
-    <t>location 48</t>
-  </si>
-  <si>
-    <t>name 49</t>
-  </si>
-  <si>
-    <t>location 49</t>
-  </si>
-  <si>
-    <t>name 50</t>
-  </si>
-  <si>
-    <t>location 50</t>
-  </si>
-  <si>
-    <t>name 51</t>
-  </si>
-  <si>
-    <t>location 51</t>
-  </si>
-  <si>
-    <t>name 52</t>
-  </si>
-  <si>
-    <t>location 52</t>
-  </si>
-  <si>
-    <t>name 53</t>
-  </si>
-  <si>
-    <t>location 53</t>
-  </si>
-  <si>
-    <t>name 54</t>
-  </si>
-  <si>
-    <t>location 54</t>
-  </si>
-  <si>
-    <t>name 55</t>
-  </si>
-  <si>
-    <t>location 55</t>
-  </si>
-  <si>
-    <t>name 56</t>
-  </si>
-  <si>
-    <t>location 56</t>
-  </si>
-  <si>
-    <t>name 57</t>
-  </si>
-  <si>
-    <t>location 57</t>
-  </si>
-  <si>
-    <t>name 58</t>
-  </si>
-  <si>
-    <t>location 58</t>
-  </si>
-  <si>
-    <t>name 59</t>
-  </si>
-  <si>
-    <t>location 59</t>
-  </si>
-  <si>
-    <t>name 60</t>
-  </si>
-  <si>
-    <t>location 60</t>
-  </si>
-  <si>
-    <t>name 6</t>
-  </si>
-  <si>
-    <t>location 6</t>
-  </si>
-  <si>
-    <t>name 7</t>
-  </si>
-  <si>
-    <t>location 7</t>
-  </si>
-  <si>
-    <t>name 8</t>
-  </si>
-  <si>
-    <t>location 8</t>
-  </si>
-  <si>
-    <t>name 9</t>
-  </si>
-  <si>
-    <t>location 9</t>
   </si>
 </sst>
 </file>
@@ -681,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,21 +513,21 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,571 +535,219 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>47</v>
-      </c>
-      <c r="B42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>53</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>54</v>
-      </c>
-      <c r="B49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>55</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>56</v>
-      </c>
-      <c r="B51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>57</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>58</v>
-      </c>
-      <c r="B53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>59</v>
-      </c>
-      <c r="B54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>60</v>
-      </c>
-      <c r="B55" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1304,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3DEAD2-06D2-4C8F-88E8-2AD86CE58136}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +771,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>133333337</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>666999</v>
@@ -1326,7 +782,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>133333337</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>666999</v>
@@ -1337,7 +793,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>6699</v>
@@ -1348,7 +804,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>6699</v>
@@ -1359,7 +815,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>6699</v>
@@ -1370,7 +826,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>6699</v>
@@ -1392,7 +848,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>6699</v>
@@ -1414,7 +870,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>6699</v>
@@ -1425,7 +881,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>6699</v>
@@ -1435,48 +891,16 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>6699</v>
-      </c>
-      <c r="C12">
-        <v>9966</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>6699</v>
-      </c>
-      <c r="C13">
-        <v>9966</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>6699</v>
-      </c>
-      <c r="C14">
-        <v>9966</v>
-      </c>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>6699</v>
-      </c>
-      <c r="C15">
-        <v>9966</v>
-      </c>
+      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E54284-F4AF-4CC5-A065-0A68EC2D742C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCF1453-49F9-4C09-A706-1368EBDCC9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="0" windowWidth="28500" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C23"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilya\Desktop\BookingService\src\main\resources\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -170,6 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -766,7 +767,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/target/classes/demo.xlsx
+++ b/target/classes/demo.xlsx
@@ -555,199 +555,188 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
